--- a/External/Documentation/Cooktastrophe - Gannt Chart.xlsx
+++ b/External/Documentation/Cooktastrophe - Gannt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{34043B9C-BE0B-49CA-A66E-DB03F321174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC7699B-5B4D-46CC-8759-6A2611751D3E}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{34043B9C-BE0B-49CA-A66E-DB03F321174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C62BC3D0-56D8-41B5-A339-BB3139C25BFA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -946,6 +946,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -953,18 +965,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1265,10 +1265,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1537,26 +1533,26 @@
   </sheetPr>
   <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="53" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ8" sqref="BQ8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.26953125"/>
+    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
@@ -1583,127 +1579,127 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <v>45315</v>
       </c>
-      <c r="F3" s="91"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="88"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>45313</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>45320</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>45327</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>45334</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>45341</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>45348</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>45355</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>45362</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45313</v>
@@ -1929,7 +1925,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>34</v>
       </c>
@@ -2177,7 +2173,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>29</v>
       </c>
@@ -2244,7 +2240,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>35</v>
       </c>
@@ -2317,7 +2313,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>36</v>
       </c>
@@ -2399,7 +2395,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
@@ -2481,7 +2477,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
         <v>58</v>
@@ -2561,7 +2557,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -2641,7 +2637,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>38</v>
       </c>
@@ -2714,7 +2710,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="81" t="s">
         <v>60</v>
@@ -2793,7 +2789,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="81" t="s">
         <v>61</v>
@@ -2872,7 +2868,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
         <v>62</v>
@@ -2949,7 +2945,7 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
         <v>63</v>
@@ -3027,7 +3023,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
         <v>45</v>
@@ -3105,7 +3101,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
         <v>46</v>
@@ -3182,7 +3178,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>26</v>
       </c>
@@ -3255,7 +3251,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
         <v>64</v>
@@ -3332,7 +3328,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
         <v>65</v>
@@ -3409,7 +3405,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
         <v>66</v>
@@ -3486,7 +3482,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
         <v>67</v>
@@ -3563,7 +3559,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
         <v>68</v>
@@ -3640,7 +3636,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="82" t="s">
         <v>69</v>
@@ -3714,7 +3710,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>70</v>
@@ -3788,7 +3784,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
         <v>68</v>
@@ -3866,7 +3862,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
         <v>47</v>
@@ -3940,7 +3936,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
         <v>26</v>
       </c>
@@ -4019,7 +4015,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
         <v>26</v>
       </c>
@@ -4092,7 +4088,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="83" t="s">
         <v>50</v>
@@ -4169,7 +4165,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="83" t="s">
         <v>49</v>
@@ -4246,7 +4242,7 @@
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="83" t="s">
         <v>51</v>
@@ -4323,7 +4319,7 @@
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="83" t="s">
         <v>52</v>
@@ -4400,7 +4396,7 @@
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="83" t="s">
         <v>53</v>
@@ -4477,7 +4473,7 @@
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="83" t="s">
         <v>48</v>
@@ -4549,7 +4545,7 @@
       <c r="BK37" s="44"/>
       <c r="BL37" s="44"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>28</v>
       </c>
@@ -4620,7 +4616,7 @@
       <c r="BK38" s="44"/>
       <c r="BL38" s="44"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>27</v>
       </c>
@@ -4693,18 +4689,23 @@
       <c r="BK39" s="46"/>
       <c r="BL39" s="46"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
       <c r="F41" s="60"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4712,11 +4713,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="14">
@@ -4790,86 +4786,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>16</v>
       </c>
